--- a/bin/xlsx/type/OverBagType.xlsx
+++ b/bin/xlsx/type/OverBagType.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
   </bookViews>
@@ -15,6 +10,7 @@
     <sheet name="overBagType" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -52,7 +48,7 @@
   </si>
   <si>
     <t>丢弃</t>
-    <rPh sb="2" eb="3">
+    <rPh sb="0" eb="2">
       <t>gong'ju</t>
     </rPh>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -71,16 +67,7 @@
       <t>cong</t>
     </rPh>
     <rPh sb="12" eb="13">
-      <t>dao</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>pai'hang'bang</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>lei</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>yong</t>
+      <t>daopai'hang'bangleiyong</t>
     </rPh>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -92,8 +79,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,7 +208,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -263,7 +250,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -295,10 +282,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -330,7 +316,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -506,21 +491,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="11.625" customWidth="1"/>
     <col min="2" max="2" width="29.625" customWidth="1"/>
     <col min="3" max="3" width="49.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -531,7 +516,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -542,7 +527,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -553,9 +538,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="4">
-        <v>1</v>
+        <v>-11</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>8</v>
@@ -564,9 +549,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="4">
-        <v>2</v>
+        <v>-12</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>11</v>
@@ -575,9 +560,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="4">
-        <v>3</v>
+        <v>-13</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>10</v>
